--- a/biology/Botanique/Parc_privé_de_Cointe/Parc_privé_de_Cointe.xlsx
+++ b/biology/Botanique/Parc_privé_de_Cointe/Parc_privé_de_Cointe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_priv%C3%A9_de_Cointe</t>
+          <t>Parc_privé_de_Cointe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc privé de Cointe est un sous-quartier faisant partie du quartier administratif de Cointe situé sur les hauteurs de Liège en Belgique.
-La gestion du parc relève depuis le 10 juillet 1926 de l'ASBL l'Association des Propriétaires du Parc de Cointe. Celle-ci est propriétaire du réseau électrique, du réseau d’égouttage, des voiries et des espaces publics (tel que l'étang)[1].
-Bien que le parc soit privé et le trafic de transit interdit, il n'y aucune barrière physique pour traverser le domaine. Les promeneurs y sont d'ailleurs tolérés[2].
+La gestion du parc relève depuis le 10 juillet 1926 de l'ASBL l'Association des Propriétaires du Parc de Cointe. Celle-ci est propriétaire du réseau électrique, du réseau d’égouttage, des voiries et des espaces publics (tel que l'étang).
+Bien que le parc soit privé et le trafic de transit interdit, il n'y aucune barrière physique pour traverser le domaine. Les promeneurs y sont d'ailleurs tolérés.
 Le domaine du parc privé, avec ses villas témoignant de diverses époques du XXe siècle, a abrité plusieurs tournages de films, dont La Raison du plus faible (2006) et Duelles (2018).
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_priv%C3%A9_de_Cointe</t>
+          <t>Parc_privé_de_Cointe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé sur un territoire ayant appartenu à la principauté de Stavelot-Malmedy, le plateau de Cointe était autrefois traversé par des voies de communication importantes. Dès le XIe siècle, les coteaux ont été défrichés pour faire place à des vignobles, des cultures et des vergers.
 Depuis le début du XIIIe siècle, il existe en bord de Meuse et sur les bords de la colline de Cointe, une abbaye créée par des chanoines augustins. Cette abbaye sera occupée par la suite par des religieuse cisterciennes; l'endroit pris le nom de "vallis benedicta" , la vallée bénite, qui deviendra le Val-Benoît .
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_priv%C3%A9_de_Cointe</t>
+          <t>Parc_privé_de_Cointe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,14 +566,16 @@
           <t>Patrimoine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le parc privé de Cointe abrite un riche patrimoine architectural, composé de villas de styles variés, datant pour la plupart d'avant 1930. Ces demeures, nichées dans un écrin de verdure, contribuent au charme et à l'atmosphère sereine du quartier : le le vieil observatoire de l'université de Liège et l'une des villas remarquables de l'architecte Gustave Serrurier-Bovy (1858-1910), la Villa l'Aube.
 Réalisation d'Henri Snyers :
 Les villas jumelles 1 &amp; 2, nos  35 et 37 avenue des Platanes, 1929.
-De 1929 à 1930, l'héritage d'une tante française lui permet de construire ses trois premières villas, sur le plateau de Cointe, en dehors de toutes contraintes liées aux desiderata d'un commanditaire. Les deux premières sont jumelles. Elles se situent avenue des Platanes n° 35 et 37[3]. 
+De 1929 à 1930, l'héritage d'une tante française lui permet de construire ses trois premières villas, sur le plateau de Cointe, en dehors de toutes contraintes liées aux desiderata d'un commanditaire. Les deux premières sont jumelles. Elles se situent avenue des Platanes n° 35 et 37. 
 La villa Snyers, no 11, avenue de Beaumont (anc. av. des Acacias), 1930.
-Cette troisième villa, restée propriété de la famille et aujourd'hui particulièrement choyée, est élevée au n° 11 de l'ancienne avenue des Acacias, aujourd'hui avenue de Beaumont[4].
+Cette troisième villa, restée propriété de la famille et aujourd'hui particulièrement choyée, est élevée au n° 11 de l'ancienne avenue des Acacias, aujourd'hui avenue de Beaumont.
 Villa Platel, 9, avenue de Beaumont (anc. av. des Acacias), 1938.</t>
         </is>
       </c>
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_priv%C3%A9_de_Cointe</t>
+          <t>Parc_privé_de_Cointe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc privé actuel est plafonné à l'altitude de 125 mètre au dessus du niveau de la mer. Il est voisin de la place du Batty, du val-Benoît, du parc communal de Cointe, des anciens vignobles et des villas de la côte d'or.
 </t>
